--- a/data_curation/dataset_unique.xlsx
+++ b/data_curation/dataset_unique.xlsx
@@ -601,15 +601,11 @@
       <c r="I3" t="n">
         <v>68.40000000000001</v>
       </c>
-      <c r="J3" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
         <v>115</v>
       </c>
-      <c r="L3" t="n">
-        <v>-1</v>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>13.2</v>
       </c>
@@ -654,15 +650,11 @@
       <c r="I4" t="n">
         <v>81.8</v>
       </c>
-      <c r="J4" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
         <v>339</v>
       </c>
-      <c r="L4" t="n">
-        <v>-1</v>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>8</v>
       </c>
@@ -769,9 +761,7 @@
       <c r="L6" t="n">
         <v>1</v>
       </c>
-      <c r="M6" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
         <v>4</v>
       </c>
@@ -813,9 +803,7 @@
       <c r="I7" t="n">
         <v>71</v>
       </c>
-      <c r="J7" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
         <v>6</v>
       </c>
@@ -863,9 +851,7 @@
       <c r="H8" t="n">
         <v>15.9</v>
       </c>
-      <c r="I8" t="n">
-        <v>-1</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
         <v>2</v>
       </c>
@@ -928,9 +914,7 @@
       <c r="L9" t="n">
         <v>1</v>
       </c>
-      <c r="M9" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M9" t="inlineStr"/>
       <c r="N9" t="n">
         <v>6</v>
       </c>
@@ -1022,9 +1006,7 @@
       <c r="H11" t="n">
         <v>11.3</v>
       </c>
-      <c r="I11" t="n">
-        <v>-1</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
         <v>0</v>
       </c>
@@ -1034,9 +1016,7 @@
       <c r="L11" t="n">
         <v>0</v>
       </c>
-      <c r="M11" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
         <v>2</v>
       </c>
@@ -1078,9 +1058,7 @@
       <c r="I12" t="n">
         <v>71.09999999999999</v>
       </c>
-      <c r="J12" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
         <v>9</v>
       </c>
@@ -1131,9 +1109,7 @@
       <c r="I13" t="n">
         <v>58.4</v>
       </c>
-      <c r="J13" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
         <v>1</v>
       </c>
@@ -1290,9 +1266,7 @@
       <c r="I16" t="n">
         <v>51</v>
       </c>
-      <c r="J16" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
         <v>5</v>
       </c>
@@ -1343,18 +1317,14 @@
       <c r="I17" t="n">
         <v>85.90000000000001</v>
       </c>
-      <c r="J17" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
         <v>12</v>
       </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
-      <c r="M17" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M17" t="inlineStr"/>
       <c r="N17" t="n">
         <v>7</v>
       </c>
@@ -1393,21 +1363,15 @@
       <c r="H18" t="n">
         <v>5.7</v>
       </c>
-      <c r="I18" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>-1</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
         <v>8</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
-      <c r="M18" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M18" t="inlineStr"/>
       <c r="N18" t="n">
         <v>2</v>
       </c>
@@ -1449,9 +1413,7 @@
       <c r="I19" t="n">
         <v>79.90000000000001</v>
       </c>
-      <c r="J19" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
         <v>17</v>
       </c>
@@ -1605,12 +1567,8 @@
       <c r="H22" t="n">
         <v>6.9</v>
       </c>
-      <c r="I22" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>-1</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
         <v>13</v>
       </c>
@@ -1767,9 +1725,7 @@
       <c r="I25" t="n">
         <v>50.7</v>
       </c>
-      <c r="J25" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
         <v>13</v>
       </c>
@@ -1829,9 +1785,7 @@
       <c r="L26" t="n">
         <v>0</v>
       </c>
-      <c r="M26" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M26" t="inlineStr"/>
       <c r="N26" t="n">
         <v>5</v>
       </c>
@@ -1870,9 +1824,7 @@
       <c r="H27" t="n">
         <v>22.9</v>
       </c>
-      <c r="I27" t="n">
-        <v>-1</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
         <v>1</v>
       </c>
@@ -1882,9 +1834,7 @@
       <c r="L27" t="n">
         <v>0</v>
       </c>
-      <c r="M27" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M27" t="inlineStr"/>
       <c r="N27" t="n">
         <v>7</v>
       </c>
@@ -1935,9 +1885,7 @@
       <c r="L28" t="n">
         <v>1</v>
       </c>
-      <c r="M28" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M28" t="inlineStr"/>
       <c r="N28" t="n">
         <v>8</v>
       </c>
@@ -1988,9 +1936,7 @@
       <c r="L29" t="n">
         <v>0</v>
       </c>
-      <c r="M29" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M29" t="inlineStr"/>
       <c r="N29" t="n">
         <v>6</v>
       </c>
@@ -2032,9 +1978,7 @@
       <c r="I30" t="n">
         <v>81.8</v>
       </c>
-      <c r="J30" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
         <v>20</v>
       </c>
@@ -2094,9 +2038,7 @@
       <c r="L31" t="n">
         <v>1</v>
       </c>
-      <c r="M31" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M31" t="inlineStr"/>
       <c r="N31" t="n">
         <v>4</v>
       </c>
@@ -2135,9 +2077,7 @@
       <c r="H32" t="n">
         <v>11</v>
       </c>
-      <c r="I32" t="n">
-        <v>-1</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
         <v>3</v>
       </c>
@@ -2244,18 +2184,14 @@
       <c r="I34" t="n">
         <v>65</v>
       </c>
-      <c r="J34" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
-      <c r="M34" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M34" t="inlineStr"/>
       <c r="N34" t="n">
         <v>5</v>
       </c>
@@ -2350,9 +2286,7 @@
       <c r="I36" t="n">
         <v>86.7</v>
       </c>
-      <c r="J36" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
         <v>117</v>
       </c>
@@ -2412,9 +2346,7 @@
       <c r="L37" t="n">
         <v>0</v>
       </c>
-      <c r="M37" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M37" t="inlineStr"/>
       <c r="N37" t="n">
         <v>3</v>
       </c>
@@ -2456,18 +2388,14 @@
       <c r="I38" t="n">
         <v>84.09999999999999</v>
       </c>
-      <c r="J38" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
         <v>71</v>
       </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
-      <c r="M38" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M38" t="inlineStr"/>
       <c r="N38" t="n">
         <v>7</v>
       </c>
@@ -2506,9 +2434,7 @@
       <c r="H39" t="n">
         <v>10.9</v>
       </c>
-      <c r="I39" t="n">
-        <v>-1</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
         <v>3</v>
       </c>
@@ -2571,9 +2497,7 @@
       <c r="L40" t="n">
         <v>1</v>
       </c>
-      <c r="M40" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M40" t="inlineStr"/>
       <c r="N40" t="n">
         <v>8</v>
       </c>
@@ -2718,9 +2642,7 @@
       <c r="H43" t="n">
         <v>7.1</v>
       </c>
-      <c r="I43" t="n">
-        <v>-1</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
         <v>1</v>
       </c>
@@ -2730,9 +2652,7 @@
       <c r="L43" t="n">
         <v>0</v>
       </c>
-      <c r="M43" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M43" t="inlineStr"/>
       <c r="N43" t="n">
         <v>6</v>
       </c>
@@ -2824,9 +2744,7 @@
       <c r="H45" t="n">
         <v>22</v>
       </c>
-      <c r="I45" t="n">
-        <v>-1</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
         <v>3</v>
       </c>
@@ -2836,9 +2754,7 @@
       <c r="L45" t="n">
         <v>1</v>
       </c>
-      <c r="M45" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M45" t="inlineStr"/>
       <c r="N45" t="n">
         <v>6</v>
       </c>
@@ -2880,18 +2796,14 @@
       <c r="I46" t="n">
         <v>54.4</v>
       </c>
-      <c r="J46" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
-      <c r="M46" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M46" t="inlineStr"/>
       <c r="N46" t="n">
         <v>4</v>
       </c>
@@ -2933,18 +2845,14 @@
       <c r="I47" t="n">
         <v>84</v>
       </c>
-      <c r="J47" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
         <v>34</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
       </c>
-      <c r="M47" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M47" t="inlineStr"/>
       <c r="N47" t="n">
         <v>7</v>
       </c>
@@ -3048,9 +2956,7 @@
       <c r="L49" t="n">
         <v>1</v>
       </c>
-      <c r="M49" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M49" t="inlineStr"/>
       <c r="N49" t="n">
         <v>8</v>
       </c>
@@ -3145,9 +3051,7 @@
       <c r="I51" t="n">
         <v>84.09999999999999</v>
       </c>
-      <c r="J51" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
         <v>15</v>
       </c>
@@ -3198,9 +3102,7 @@
       <c r="I52" t="n">
         <v>86.59999999999999</v>
       </c>
-      <c r="J52" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
         <v>45</v>
       </c>
@@ -3251,18 +3153,14 @@
       <c r="I53" t="n">
         <v>73.7</v>
       </c>
-      <c r="J53" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
         <v>209</v>
       </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
-      <c r="M53" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M53" t="inlineStr"/>
       <c r="N53" t="n">
         <v>4</v>
       </c>
@@ -3304,9 +3202,7 @@
       <c r="I54" t="n">
         <v>83.59999999999999</v>
       </c>
-      <c r="J54" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
         <v>6</v>
       </c>
@@ -3357,9 +3253,7 @@
       <c r="I55" t="n">
         <v>84</v>
       </c>
-      <c r="J55" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
         <v>47</v>
       </c>
@@ -3419,9 +3313,7 @@
       <c r="L56" t="n">
         <v>1</v>
       </c>
-      <c r="M56" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M56" t="inlineStr"/>
       <c r="N56" t="n">
         <v>6</v>
       </c>
@@ -3569,9 +3461,7 @@
       <c r="I59" t="n">
         <v>71.90000000000001</v>
       </c>
-      <c r="J59" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
         <v>1</v>
       </c>
@@ -3622,18 +3512,14 @@
       <c r="I60" t="n">
         <v>89.2</v>
       </c>
-      <c r="J60" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
         <v>245</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
       </c>
-      <c r="M60" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M60" t="inlineStr"/>
       <c r="N60" t="n">
         <v>5</v>
       </c>
@@ -3675,9 +3561,7 @@
       <c r="I61" t="n">
         <v>78.90000000000001</v>
       </c>
-      <c r="J61" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
         <v>7</v>
       </c>
@@ -3840,9 +3724,7 @@
       <c r="K64" t="n">
         <v>26</v>
       </c>
-      <c r="L64" t="n">
-        <v>-1</v>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>5.5</v>
       </c>
@@ -3884,9 +3766,7 @@
       <c r="H65" t="n">
         <v>5.6</v>
       </c>
-      <c r="I65" t="n">
-        <v>-1</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
         <v>0</v>
       </c>
@@ -3896,9 +3776,7 @@
       <c r="L65" t="n">
         <v>0</v>
       </c>
-      <c r="M65" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M65" t="inlineStr"/>
       <c r="N65" t="n">
         <v>3</v>
       </c>
@@ -4046,9 +3924,7 @@
       <c r="I68" t="n">
         <v>76.59999999999999</v>
       </c>
-      <c r="J68" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
         <v>71</v>
       </c>
@@ -4108,9 +3984,7 @@
       <c r="L69" t="n">
         <v>0</v>
       </c>
-      <c r="M69" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M69" t="inlineStr"/>
       <c r="N69" t="n">
         <v>4</v>
       </c>
@@ -4205,9 +4079,7 @@
       <c r="I71" t="n">
         <v>65.40000000000001</v>
       </c>
-      <c r="J71" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
         <v>15</v>
       </c>
@@ -4373,9 +4245,7 @@
       <c r="L74" t="n">
         <v>0</v>
       </c>
-      <c r="M74" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M74" t="inlineStr"/>
       <c r="N74" t="n">
         <v>2</v>
       </c>
@@ -4417,9 +4287,7 @@
       <c r="I75" t="n">
         <v>87.7</v>
       </c>
-      <c r="J75" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
         <v>13</v>
       </c>
@@ -4523,18 +4391,14 @@
       <c r="I77" t="n">
         <v>72.8</v>
       </c>
-      <c r="J77" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
         <v>0</v>
       </c>
       <c r="L77" t="n">
         <v>0</v>
       </c>
-      <c r="M77" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M77" t="inlineStr"/>
       <c r="N77" t="n">
         <v>5</v>
       </c>
@@ -4688,12 +4552,8 @@
       <c r="K80" t="n">
         <v>3</v>
       </c>
-      <c r="L80" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M80" t="n">
-        <v>-1</v>
-      </c>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
       <c r="N80" t="n">
         <v>8</v>
       </c>
@@ -4788,9 +4648,7 @@
       <c r="I82" t="n">
         <v>80.8</v>
       </c>
-      <c r="J82" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
         <v>12</v>
       </c>
@@ -4841,9 +4699,7 @@
       <c r="I83" t="n">
         <v>86.2</v>
       </c>
-      <c r="J83" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
         <v>3</v>
       </c>
@@ -5106,18 +4962,14 @@
       <c r="I88" t="n">
         <v>55.5</v>
       </c>
-      <c r="J88" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
         <v>2</v>
       </c>
       <c r="L88" t="n">
         <v>0</v>
       </c>
-      <c r="M88" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M88" t="inlineStr"/>
       <c r="N88" t="n">
         <v>4</v>
       </c>
@@ -5159,9 +5011,7 @@
       <c r="I89" t="n">
         <v>84.5</v>
       </c>
-      <c r="J89" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
         <v>0</v>
       </c>
@@ -5253,9 +5103,7 @@
       <c r="E91" t="n">
         <v>0</v>
       </c>
-      <c r="F91" t="n">
-        <v>-1</v>
-      </c>
+      <c r="F91" t="inlineStr"/>
       <c r="G91" t="n">
         <v>1</v>
       </c>
@@ -5265,9 +5113,7 @@
       <c r="I91" t="n">
         <v>71.3</v>
       </c>
-      <c r="J91" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
         <v>5</v>
       </c>
@@ -5318,9 +5164,7 @@
       <c r="I92" t="n">
         <v>83.7</v>
       </c>
-      <c r="J92" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
         <v>15</v>
       </c>
@@ -5350,12 +5194,8 @@
       <c r="B93" t="n">
         <v>0</v>
       </c>
-      <c r="C93" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D93" t="n">
-        <v>-1</v>
-      </c>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
       <c r="E93" t="n">
         <v>0</v>
       </c>
@@ -5424,18 +5264,14 @@
       <c r="I94" t="n">
         <v>75.2</v>
       </c>
-      <c r="J94" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
         <v>6</v>
       </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
-      <c r="M94" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M94" t="inlineStr"/>
       <c r="N94" t="n">
         <v>9</v>
       </c>
@@ -5474,9 +5310,7 @@
       <c r="H95" t="n">
         <v>5.7</v>
       </c>
-      <c r="I95" t="n">
-        <v>-1</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
         <v>1</v>
       </c>
@@ -5486,9 +5320,7 @@
       <c r="L95" t="n">
         <v>0</v>
       </c>
-      <c r="M95" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M95" t="inlineStr"/>
       <c r="N95" t="n">
         <v>5</v>
       </c>
@@ -5539,9 +5371,7 @@
       <c r="L96" t="n">
         <v>0</v>
       </c>
-      <c r="M96" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M96" t="inlineStr"/>
       <c r="N96" t="n">
         <v>9</v>
       </c>
@@ -5583,9 +5413,7 @@
       <c r="I97" t="n">
         <v>80</v>
       </c>
-      <c r="J97" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
         <v>8</v>
       </c>
@@ -5636,18 +5464,14 @@
       <c r="I98" t="n">
         <v>45.3</v>
       </c>
-      <c r="J98" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
         <v>44</v>
       </c>
       <c r="L98" t="n">
         <v>0</v>
       </c>
-      <c r="M98" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M98" t="inlineStr"/>
       <c r="N98" t="n">
         <v>2</v>
       </c>
@@ -5698,9 +5522,7 @@
       <c r="L99" t="n">
         <v>0</v>
       </c>
-      <c r="M99" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M99" t="inlineStr"/>
       <c r="N99" t="n">
         <v>6</v>
       </c>
@@ -5748,12 +5570,8 @@
       <c r="K100" t="n">
         <v>0</v>
       </c>
-      <c r="L100" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M100" t="n">
-        <v>-1</v>
-      </c>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
       <c r="N100" t="n">
         <v>6</v>
       </c>
@@ -5795,9 +5613,7 @@
       <c r="I101" t="n">
         <v>87.09999999999999</v>
       </c>
-      <c r="J101" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
         <v>20</v>
       </c>
@@ -5901,18 +5717,12 @@
       <c r="I103" t="n">
         <v>74</v>
       </c>
-      <c r="J103" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
         <v>119</v>
       </c>
-      <c r="L103" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M103" t="n">
-        <v>-1</v>
-      </c>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
       <c r="N103" t="n">
         <v>6</v>
       </c>
@@ -5951,12 +5761,8 @@
       <c r="H104" t="n">
         <v>13.5</v>
       </c>
-      <c r="I104" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J104" t="n">
-        <v>-1</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
         <v>122</v>
       </c>
@@ -6016,9 +5822,7 @@
       <c r="L105" t="n">
         <v>0</v>
       </c>
-      <c r="M105" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M105" t="inlineStr"/>
       <c r="N105" t="n">
         <v>7</v>
       </c>
@@ -6069,9 +5873,7 @@
       <c r="L106" t="n">
         <v>0</v>
       </c>
-      <c r="M106" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M106" t="inlineStr"/>
       <c r="N106" t="n">
         <v>8</v>
       </c>
@@ -6122,9 +5924,7 @@
       <c r="L107" t="n">
         <v>1</v>
       </c>
-      <c r="M107" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M107" t="inlineStr"/>
       <c r="N107" t="n">
         <v>5</v>
       </c>
@@ -6325,9 +6125,7 @@
       <c r="I111" t="n">
         <v>62.7</v>
       </c>
-      <c r="J111" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
         <v>21</v>
       </c>
@@ -6440,9 +6238,7 @@
       <c r="L113" t="n">
         <v>0</v>
       </c>
-      <c r="M113" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M113" t="inlineStr"/>
       <c r="N113" t="n">
         <v>9</v>
       </c>
@@ -6493,9 +6289,7 @@
       <c r="L114" t="n">
         <v>1</v>
       </c>
-      <c r="M114" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M114" t="inlineStr"/>
       <c r="N114" t="n">
         <v>4</v>
       </c>
@@ -6640,9 +6434,7 @@
       <c r="H117" t="n">
         <v>12.5</v>
       </c>
-      <c r="I117" t="n">
-        <v>-1</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
         <v>0</v>
       </c>
@@ -6758,9 +6550,7 @@
       <c r="L119" t="n">
         <v>0</v>
       </c>
-      <c r="M119" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M119" t="inlineStr"/>
       <c r="N119" t="n">
         <v>5</v>
       </c>
@@ -6852,12 +6642,8 @@
       <c r="H121" t="n">
         <v>4</v>
       </c>
-      <c r="I121" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J121" t="n">
-        <v>-1</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
         <v>2</v>
       </c>
@@ -7014,9 +6800,7 @@
       <c r="I124" t="n">
         <v>68.2</v>
       </c>
-      <c r="J124" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
         <v>2</v>
       </c>
@@ -7064,12 +6848,8 @@
       <c r="H125" t="n">
         <v>7.9</v>
       </c>
-      <c r="I125" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J125" t="n">
-        <v>-1</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
         <v>29</v>
       </c>
@@ -7120,9 +6900,7 @@
       <c r="I126" t="n">
         <v>79</v>
       </c>
-      <c r="J126" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
         <v>15</v>
       </c>
@@ -7173,18 +6951,14 @@
       <c r="I127" t="n">
         <v>49.4</v>
       </c>
-      <c r="J127" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
         <v>0</v>
       </c>
       <c r="L127" t="n">
         <v>0</v>
       </c>
-      <c r="M127" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M127" t="inlineStr"/>
       <c r="N127" t="n">
         <v>2</v>
       </c>
@@ -7235,9 +7009,7 @@
       <c r="L128" t="n">
         <v>0</v>
       </c>
-      <c r="M128" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M128" t="inlineStr"/>
       <c r="N128" t="n">
         <v>5</v>
       </c>
@@ -7491,9 +7263,7 @@
       <c r="I133" t="n">
         <v>91.90000000000001</v>
       </c>
-      <c r="J133" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
         <v>81</v>
       </c>
@@ -7550,12 +7320,8 @@
       <c r="K134" t="n">
         <v>0</v>
       </c>
-      <c r="L134" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M134" t="n">
-        <v>-1</v>
-      </c>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
       <c r="N134" t="n">
         <v>2</v>
       </c>
@@ -7594,9 +7360,7 @@
       <c r="H135" t="n">
         <v>4.4</v>
       </c>
-      <c r="I135" t="n">
-        <v>-1</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
         <v>3</v>
       </c>
@@ -7650,18 +7414,14 @@
       <c r="I136" t="n">
         <v>68.3</v>
       </c>
-      <c r="J136" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
         <v>101</v>
       </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
-      <c r="M136" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M136" t="inlineStr"/>
       <c r="N136" t="n">
         <v>6</v>
       </c>
@@ -7756,9 +7516,7 @@
       <c r="I138" t="n">
         <v>81</v>
       </c>
-      <c r="J138" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
         <v>6</v>
       </c>
@@ -7859,12 +7617,8 @@
       <c r="H140" t="n">
         <v>7</v>
       </c>
-      <c r="I140" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J140" t="n">
-        <v>-1</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
         <v>5</v>
       </c>
@@ -7915,9 +7669,7 @@
       <c r="I141" t="n">
         <v>81.5</v>
       </c>
-      <c r="J141" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
         <v>4</v>
       </c>
@@ -8083,9 +7835,7 @@
       <c r="L144" t="n">
         <v>1</v>
       </c>
-      <c r="M144" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M144" t="inlineStr"/>
       <c r="N144" t="n">
         <v>9</v>
       </c>
@@ -8136,9 +7886,7 @@
       <c r="L145" t="n">
         <v>0</v>
       </c>
-      <c r="M145" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M145" t="inlineStr"/>
       <c r="N145" t="n">
         <v>7</v>
       </c>
@@ -8180,18 +7928,12 @@
       <c r="I146" t="n">
         <v>67</v>
       </c>
-      <c r="J146" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
         <v>57</v>
       </c>
-      <c r="L146" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M146" t="n">
-        <v>-1</v>
-      </c>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
       <c r="N146" t="n">
         <v>3</v>
       </c>
@@ -8442,21 +8184,15 @@
       <c r="H151" t="n">
         <v>7.7</v>
       </c>
-      <c r="I151" t="n">
-        <v>-1</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
         <v>3</v>
       </c>
-      <c r="K151" t="n">
-        <v>-1</v>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
-      <c r="M151" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M151" t="inlineStr"/>
       <c r="N151" t="n">
         <v>4</v>
       </c>
@@ -8560,9 +8296,7 @@
       <c r="L153" t="n">
         <v>0</v>
       </c>
-      <c r="M153" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M153" t="inlineStr"/>
       <c r="N153" t="n">
         <v>9</v>
       </c>
@@ -8601,21 +8335,15 @@
       <c r="H154" t="n">
         <v>6.2</v>
       </c>
-      <c r="I154" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J154" t="n">
-        <v>-1</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
         <v>26</v>
       </c>
       <c r="L154" t="n">
         <v>0</v>
       </c>
-      <c r="M154" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M154" t="inlineStr"/>
       <c r="N154" t="n">
         <v>4</v>
       </c>
@@ -8657,18 +8385,12 @@
       <c r="I155" t="n">
         <v>82</v>
       </c>
-      <c r="J155" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="n">
         <v>35</v>
       </c>
-      <c r="L155" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M155" t="n">
-        <v>-1</v>
-      </c>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
       <c r="N155" t="n">
         <v>6</v>
       </c>
@@ -8710,18 +8432,14 @@
       <c r="I156" t="n">
         <v>67.7</v>
       </c>
-      <c r="J156" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="n">
         <v>152</v>
       </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
-      <c r="M156" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M156" t="inlineStr"/>
       <c r="N156" t="n">
         <v>5</v>
       </c>
@@ -8825,9 +8543,7 @@
       <c r="L158" t="n">
         <v>0</v>
       </c>
-      <c r="M158" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M158" t="inlineStr"/>
       <c r="N158" t="n">
         <v>5</v>
       </c>
@@ -8931,9 +8647,7 @@
       <c r="L160" t="n">
         <v>1</v>
       </c>
-      <c r="M160" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M160" t="inlineStr"/>
       <c r="N160" t="n">
         <v>7</v>
       </c>
@@ -9034,9 +8748,7 @@
       <c r="K162" t="n">
         <v>14</v>
       </c>
-      <c r="L162" t="n">
-        <v>-1</v>
-      </c>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>11</v>
       </c>
@@ -9078,9 +8790,7 @@
       <c r="H163" t="n">
         <v>6</v>
       </c>
-      <c r="I163" t="n">
-        <v>-1</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
         <v>1</v>
       </c>
@@ -9134,9 +8844,7 @@
       <c r="I164" t="n">
         <v>75.5</v>
       </c>
-      <c r="J164" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="n">
         <v>22</v>
       </c>
@@ -9290,9 +8998,7 @@
       <c r="H167" t="n">
         <v>13</v>
       </c>
-      <c r="I167" t="n">
-        <v>-1</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
         <v>3</v>
       </c>
@@ -9334,9 +9040,7 @@
       <c r="E168" t="n">
         <v>0</v>
       </c>
-      <c r="F168" t="n">
-        <v>-1</v>
-      </c>
+      <c r="F168" t="inlineStr"/>
       <c r="G168" t="n">
         <v>0</v>
       </c>
@@ -9408,9 +9112,7 @@
       <c r="L169" t="n">
         <v>1</v>
       </c>
-      <c r="M169" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M169" t="inlineStr"/>
       <c r="N169" t="n">
         <v>4</v>
       </c>
@@ -9461,9 +9163,7 @@
       <c r="L170" t="n">
         <v>0</v>
       </c>
-      <c r="M170" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M170" t="inlineStr"/>
       <c r="N170" t="n">
         <v>3</v>
       </c>
@@ -9608,9 +9308,7 @@
       <c r="H173" t="n">
         <v>17.7</v>
       </c>
-      <c r="I173" t="n">
-        <v>-1</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
         <v>0</v>
       </c>
@@ -9823,18 +9521,14 @@
       <c r="I177" t="n">
         <v>78.40000000000001</v>
       </c>
-      <c r="J177" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="n">
         <v>77</v>
       </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
-      <c r="M177" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M177" t="inlineStr"/>
       <c r="N177" t="n">
         <v>8</v>
       </c>
@@ -9876,9 +9570,7 @@
       <c r="I178" t="n">
         <v>79.8</v>
       </c>
-      <c r="J178" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="n">
         <v>37</v>
       </c>
@@ -9929,18 +9621,14 @@
       <c r="I179" t="n">
         <v>79</v>
       </c>
-      <c r="J179" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="n">
         <v>234</v>
       </c>
       <c r="L179" t="n">
         <v>0</v>
       </c>
-      <c r="M179" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M179" t="inlineStr"/>
       <c r="N179" t="n">
         <v>10</v>
       </c>
@@ -9991,9 +9679,7 @@
       <c r="L180" t="n">
         <v>0</v>
       </c>
-      <c r="M180" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M180" t="inlineStr"/>
       <c r="N180" t="n">
         <v>6</v>
       </c>
@@ -10035,9 +9721,7 @@
       <c r="I181" t="n">
         <v>70.7</v>
       </c>
-      <c r="J181" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="n">
         <v>0</v>
       </c>
@@ -10300,9 +9984,7 @@
       <c r="I186" t="n">
         <v>80.7</v>
       </c>
-      <c r="J186" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="n">
         <v>1</v>
       </c>
@@ -10350,21 +10032,15 @@
       <c r="H187" t="n">
         <v>10.4</v>
       </c>
-      <c r="I187" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J187" t="n">
-        <v>-1</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="n">
         <v>133</v>
       </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
-      <c r="M187" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M187" t="inlineStr"/>
       <c r="N187" t="n">
         <v>8</v>
       </c>
@@ -10406,9 +10082,7 @@
       <c r="I188" t="n">
         <v>84.3</v>
       </c>
-      <c r="J188" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="n">
         <v>93</v>
       </c>
@@ -10462,9 +10136,7 @@
       <c r="J189" t="n">
         <v>3</v>
       </c>
-      <c r="K189" t="n">
-        <v>-1</v>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -10509,9 +10181,7 @@
       <c r="H190" t="n">
         <v>20.9</v>
       </c>
-      <c r="I190" t="n">
-        <v>-1</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
         <v>0</v>
       </c>
@@ -10615,21 +10285,15 @@
       <c r="H192" t="n">
         <v>5.7</v>
       </c>
-      <c r="I192" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J192" t="n">
-        <v>-1</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="n">
         <v>1</v>
       </c>
       <c r="L192" t="n">
         <v>0</v>
       </c>
-      <c r="M192" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M192" t="inlineStr"/>
       <c r="N192" t="n">
         <v>2</v>
       </c>
@@ -10671,9 +10335,7 @@
       <c r="I193" t="n">
         <v>84</v>
       </c>
-      <c r="J193" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="n">
         <v>6</v>
       </c>
@@ -10724,18 +10386,14 @@
       <c r="I194" t="n">
         <v>80.90000000000001</v>
       </c>
-      <c r="J194" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="n">
         <v>87</v>
       </c>
       <c r="L194" t="n">
         <v>0</v>
       </c>
-      <c r="M194" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M194" t="inlineStr"/>
       <c r="N194" t="n">
         <v>9</v>
       </c>
@@ -10786,9 +10444,7 @@
       <c r="L195" t="n">
         <v>1</v>
       </c>
-      <c r="M195" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M195" t="inlineStr"/>
       <c r="N195" t="n">
         <v>3</v>
       </c>
@@ -10839,9 +10495,7 @@
       <c r="L196" t="n">
         <v>1</v>
       </c>
-      <c r="M196" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M196" t="inlineStr"/>
       <c r="N196" t="n">
         <v>6</v>
       </c>
@@ -10936,9 +10590,7 @@
       <c r="I198" t="n">
         <v>80.90000000000001</v>
       </c>
-      <c r="J198" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="n">
         <v>20</v>
       </c>
@@ -11036,9 +10688,7 @@
       <c r="G200" t="n">
         <v>0</v>
       </c>
-      <c r="H200" t="n">
-        <v>-1</v>
-      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="n">
         <v>68.90000000000001</v>
       </c>
@@ -11095,9 +10745,7 @@
       <c r="I201" t="n">
         <v>83</v>
       </c>
-      <c r="J201" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="n">
         <v>26</v>
       </c>
@@ -11254,18 +10902,14 @@
       <c r="I204" t="n">
         <v>43.5</v>
       </c>
-      <c r="J204" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="n">
         <v>2</v>
       </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
-      <c r="M204" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M204" t="inlineStr"/>
       <c r="N204" t="n">
         <v>4</v>
       </c>
@@ -11307,9 +10951,7 @@
       <c r="I205" t="n">
         <v>62.9</v>
       </c>
-      <c r="J205" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="n">
         <v>14</v>
       </c>
@@ -11466,9 +11108,7 @@
       <c r="I208" t="n">
         <v>82.90000000000001</v>
       </c>
-      <c r="J208" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="n">
         <v>0</v>
       </c>
@@ -11569,12 +11209,8 @@
       <c r="H210" t="n">
         <v>11.5</v>
       </c>
-      <c r="I210" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J210" t="n">
-        <v>-1</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="n">
         <v>6.9</v>
       </c>
@@ -11731,9 +11367,7 @@
       <c r="I213" t="n">
         <v>54.1</v>
       </c>
-      <c r="J213" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="n">
         <v>0</v>
       </c>
@@ -11772,9 +11406,7 @@
       <c r="E214" t="n">
         <v>1</v>
       </c>
-      <c r="F214" t="n">
-        <v>-1</v>
-      </c>
+      <c r="F214" t="inlineStr"/>
       <c r="G214" t="n">
         <v>0</v>
       </c>
@@ -11837,9 +11469,7 @@
       <c r="I215" t="n">
         <v>84.5</v>
       </c>
-      <c r="J215" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="n">
         <v>6</v>
       </c>
@@ -11887,12 +11517,8 @@
       <c r="H216" t="n">
         <v>19.8</v>
       </c>
-      <c r="I216" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J216" t="n">
-        <v>-1</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="n">
         <v>185</v>
       </c>
@@ -12049,9 +11675,7 @@
       <c r="I219" t="n">
         <v>90.5</v>
       </c>
-      <c r="J219" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="n">
         <v>44</v>
       </c>
@@ -12099,9 +11723,7 @@
       <c r="H220" t="n">
         <v>11.3</v>
       </c>
-      <c r="I220" t="n">
-        <v>-1</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
         <v>0</v>
       </c>
@@ -12211,9 +11833,7 @@
       <c r="J222" t="n">
         <v>0</v>
       </c>
-      <c r="K222" t="n">
-        <v>-1</v>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>0</v>
       </c>
@@ -12414,18 +12034,10 @@
       <c r="G226" t="n">
         <v>1</v>
       </c>
-      <c r="H226" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J226" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K226" t="n">
-        <v>-1</v>
-      </c>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -12535,9 +12147,7 @@
       <c r="L228" t="n">
         <v>0</v>
       </c>
-      <c r="M228" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M228" t="inlineStr"/>
       <c r="N228" t="n">
         <v>5</v>
       </c>
@@ -12747,9 +12357,7 @@
       <c r="L232" t="n">
         <v>0</v>
       </c>
-      <c r="M232" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M232" t="inlineStr"/>
       <c r="N232" t="n">
         <v>3</v>
       </c>
@@ -12791,9 +12399,7 @@
       <c r="I233" t="n">
         <v>77.5</v>
       </c>
-      <c r="J233" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="n">
         <v>0</v>
       </c>
@@ -12906,9 +12512,7 @@
       <c r="L235" t="n">
         <v>1</v>
       </c>
-      <c r="M235" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M235" t="inlineStr"/>
       <c r="N235" t="n">
         <v>9</v>
       </c>
@@ -12950,18 +12554,14 @@
       <c r="I236" t="n">
         <v>43.3</v>
       </c>
-      <c r="J236" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="n">
         <v>1</v>
       </c>
       <c r="L236" t="n">
         <v>0</v>
       </c>
-      <c r="M236" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M236" t="inlineStr"/>
       <c r="N236" t="n">
         <v>3</v>
       </c>
@@ -13003,9 +12603,7 @@
       <c r="I237" t="n">
         <v>76.2</v>
       </c>
-      <c r="J237" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="n">
         <v>16</v>
       </c>
@@ -13053,9 +12651,7 @@
       <c r="H238" t="n">
         <v>7</v>
       </c>
-      <c r="I238" t="n">
-        <v>-1</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
         <v>0</v>
       </c>
@@ -13065,9 +12661,7 @@
       <c r="L238" t="n">
         <v>0</v>
       </c>
-      <c r="M238" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M238" t="inlineStr"/>
       <c r="N238" t="n">
         <v>2</v>
       </c>
@@ -13106,9 +12700,7 @@
       <c r="H239" t="n">
         <v>11.9</v>
       </c>
-      <c r="I239" t="n">
-        <v>-1</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
         <v>0</v>
       </c>
@@ -13118,9 +12710,7 @@
       <c r="L239" t="n">
         <v>0</v>
       </c>
-      <c r="M239" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M239" t="inlineStr"/>
       <c r="N239" t="n">
         <v>6</v>
       </c>
@@ -13171,9 +12761,7 @@
       <c r="L240" t="n">
         <v>0</v>
       </c>
-      <c r="M240" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M240" t="inlineStr"/>
       <c r="N240" t="n">
         <v>5</v>
       </c>
@@ -13209,24 +12797,12 @@
       <c r="G241" t="n">
         <v>0</v>
       </c>
-      <c r="H241" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J241" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K241" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L241" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M241" t="n">
-        <v>-1</v>
-      </c>
+      <c r="H241" t="inlineStr"/>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="inlineStr"/>
       <c r="N241" t="n">
         <v>2</v>
       </c>
@@ -13489,9 +13065,7 @@
       <c r="L246" t="n">
         <v>1</v>
       </c>
-      <c r="M246" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M246" t="inlineStr"/>
       <c r="N246" t="n">
         <v>7</v>
       </c>
@@ -13530,9 +13104,7 @@
       <c r="H247" t="n">
         <v>10.5</v>
       </c>
-      <c r="I247" t="n">
-        <v>-1</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
         <v>0</v>
       </c>
@@ -13542,9 +13114,7 @@
       <c r="L247" t="n">
         <v>0</v>
       </c>
-      <c r="M247" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M247" t="inlineStr"/>
       <c r="N247" t="n">
         <v>5</v>
       </c>
@@ -13595,9 +13165,7 @@
       <c r="L248" t="n">
         <v>0</v>
       </c>
-      <c r="M248" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M248" t="inlineStr"/>
       <c r="N248" t="n">
         <v>3</v>
       </c>
@@ -13639,9 +13207,7 @@
       <c r="I249" t="n">
         <v>80.8</v>
       </c>
-      <c r="J249" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="n">
         <v>23</v>
       </c>
@@ -13698,12 +13264,8 @@
       <c r="K250" t="n">
         <v>4</v>
       </c>
-      <c r="L250" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M250" t="n">
-        <v>-1</v>
-      </c>
+      <c r="L250" t="inlineStr"/>
+      <c r="M250" t="inlineStr"/>
       <c r="N250" t="n">
         <v>7</v>
       </c>
@@ -13807,9 +13369,7 @@
       <c r="L252" t="n">
         <v>1</v>
       </c>
-      <c r="M252" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M252" t="inlineStr"/>
       <c r="N252" t="n">
         <v>3</v>
       </c>
@@ -13860,9 +13420,7 @@
       <c r="L253" t="n">
         <v>0</v>
       </c>
-      <c r="M253" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M253" t="inlineStr"/>
       <c r="N253" t="n">
         <v>2</v>
       </c>
@@ -13904,9 +13462,7 @@
       <c r="I254" t="n">
         <v>79.7</v>
       </c>
-      <c r="J254" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="n">
         <v>3</v>
       </c>
@@ -13957,18 +13513,14 @@
       <c r="I255" t="n">
         <v>88.3</v>
       </c>
-      <c r="J255" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="n">
         <v>3</v>
       </c>
       <c r="L255" t="n">
         <v>0</v>
       </c>
-      <c r="M255" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M255" t="inlineStr"/>
       <c r="N255" t="n">
         <v>5</v>
       </c>
@@ -14072,9 +13624,7 @@
       <c r="L257" t="n">
         <v>1</v>
       </c>
-      <c r="M257" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M257" t="inlineStr"/>
       <c r="N257" t="n">
         <v>2</v>
       </c>
@@ -14113,9 +13663,7 @@
       <c r="H258" t="n">
         <v>10.3</v>
       </c>
-      <c r="I258" t="n">
-        <v>-1</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
         <v>0</v>
       </c>
@@ -14125,9 +13673,7 @@
       <c r="L258" t="n">
         <v>0</v>
       </c>
-      <c r="M258" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M258" t="inlineStr"/>
       <c r="N258" t="n">
         <v>5</v>
       </c>
@@ -14169,9 +13715,7 @@
       <c r="I259" t="n">
         <v>74</v>
       </c>
-      <c r="J259" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="n">
         <v>37</v>
       </c>
@@ -14275,18 +13819,14 @@
       <c r="I261" t="n">
         <v>79</v>
       </c>
-      <c r="J261" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="n">
         <v>13</v>
       </c>
       <c r="L261" t="n">
         <v>0</v>
       </c>
-      <c r="M261" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M261" t="inlineStr"/>
       <c r="N261" t="n">
         <v>8</v>
       </c>
@@ -14487,18 +14027,12 @@
       <c r="I265" t="n">
         <v>81.7</v>
       </c>
-      <c r="J265" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="n">
         <v>236</v>
       </c>
-      <c r="L265" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M265" t="n">
-        <v>-1</v>
-      </c>
+      <c r="L265" t="inlineStr"/>
+      <c r="M265" t="inlineStr"/>
       <c r="N265" t="n">
         <v>9</v>
       </c>
@@ -14549,9 +14083,7 @@
       <c r="L266" t="n">
         <v>1</v>
       </c>
-      <c r="M266" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M266" t="inlineStr"/>
       <c r="N266" t="n">
         <v>4</v>
       </c>
@@ -14593,9 +14125,7 @@
       <c r="I267" t="n">
         <v>52.9</v>
       </c>
-      <c r="J267" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="n">
         <v>1</v>
       </c>
@@ -14646,9 +14176,7 @@
       <c r="I268" t="n">
         <v>73.40000000000001</v>
       </c>
-      <c r="J268" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="n">
         <v>4</v>
       </c>
@@ -14752,12 +14280,8 @@
       <c r="I270" t="n">
         <v>85.5</v>
       </c>
-      <c r="J270" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K270" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>0</v>
       </c>
@@ -14802,21 +14326,15 @@
       <c r="H271" t="n">
         <v>15</v>
       </c>
-      <c r="I271" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J271" t="n">
-        <v>-1</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="n">
         <v>1</v>
       </c>
       <c r="L271" t="n">
         <v>0</v>
       </c>
-      <c r="M271" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M271" t="inlineStr"/>
       <c r="N271" t="n">
         <v>6</v>
       </c>
@@ -14867,9 +14385,7 @@
       <c r="L272" t="n">
         <v>0</v>
       </c>
-      <c r="M272" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M272" t="inlineStr"/>
       <c r="N272" t="n">
         <v>4</v>
       </c>
@@ -14964,18 +14480,12 @@
       <c r="I274" t="n">
         <v>93.2</v>
       </c>
-      <c r="J274" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="n">
         <v>10</v>
       </c>
-      <c r="L274" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M274" t="n">
-        <v>-1</v>
-      </c>
+      <c r="L274" t="inlineStr"/>
+      <c r="M274" t="inlineStr"/>
       <c r="N274" t="n">
         <v>8</v>
       </c>
@@ -15026,9 +14536,7 @@
       <c r="L275" t="n">
         <v>0</v>
       </c>
-      <c r="M275" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M275" t="inlineStr"/>
       <c r="N275" t="n">
         <v>3</v>
       </c>
@@ -15120,21 +14628,15 @@
       <c r="H277" t="n">
         <v>11.1</v>
       </c>
-      <c r="I277" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J277" t="n">
-        <v>-1</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="n">
         <v>9</v>
       </c>
       <c r="L277" t="n">
         <v>0</v>
       </c>
-      <c r="M277" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M277" t="inlineStr"/>
       <c r="N277" t="n">
         <v>3</v>
       </c>
@@ -15238,9 +14740,7 @@
       <c r="L279" t="n">
         <v>1</v>
       </c>
-      <c r="M279" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M279" t="inlineStr"/>
       <c r="N279" t="n">
         <v>7</v>
       </c>
@@ -15282,9 +14782,7 @@
       <c r="I280" t="n">
         <v>77.3</v>
       </c>
-      <c r="J280" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="n">
         <v>1</v>
       </c>
@@ -15335,15 +14833,11 @@
       <c r="I281" t="n">
         <v>81</v>
       </c>
-      <c r="J281" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="n">
         <v>148</v>
       </c>
-      <c r="L281" t="n">
-        <v>-1</v>
-      </c>
+      <c r="L281" t="inlineStr"/>
       <c r="M281" t="n">
         <v>15</v>
       </c>
@@ -15385,9 +14879,7 @@
       <c r="H282" t="n">
         <v>19</v>
       </c>
-      <c r="I282" t="n">
-        <v>-1</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
         <v>0</v>
       </c>
@@ -15441,18 +14933,14 @@
       <c r="I283" t="n">
         <v>54</v>
       </c>
-      <c r="J283" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="n">
         <v>1</v>
       </c>
       <c r="L283" t="n">
         <v>0</v>
       </c>
-      <c r="M283" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M283" t="inlineStr"/>
       <c r="N283" t="n">
         <v>6</v>
       </c>
@@ -15488,9 +14976,7 @@
       <c r="G284" t="n">
         <v>0</v>
       </c>
-      <c r="H284" t="n">
-        <v>-1</v>
-      </c>
+      <c r="H284" t="inlineStr"/>
       <c r="I284" t="n">
         <v>56</v>
       </c>
@@ -15503,9 +14989,7 @@
       <c r="L284" t="n">
         <v>0</v>
       </c>
-      <c r="M284" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M284" t="inlineStr"/>
       <c r="N284" t="n">
         <v>3</v>
       </c>
@@ -15600,18 +15084,14 @@
       <c r="I286" t="n">
         <v>56.3</v>
       </c>
-      <c r="J286" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="n">
         <v>1</v>
       </c>
       <c r="L286" t="n">
         <v>0</v>
       </c>
-      <c r="M286" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M286" t="inlineStr"/>
       <c r="N286" t="n">
         <v>5</v>
       </c>
@@ -15759,18 +15239,14 @@
       <c r="I289" t="n">
         <v>94.09999999999999</v>
       </c>
-      <c r="J289" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="n">
         <v>12</v>
       </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
-      <c r="M289" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M289" t="inlineStr"/>
       <c r="N289" t="n">
         <v>7</v>
       </c>
@@ -15821,9 +15297,7 @@
       <c r="L290" t="n">
         <v>1</v>
       </c>
-      <c r="M290" t="n">
-        <v>-1</v>
-      </c>
+      <c r="M290" t="inlineStr"/>
       <c r="N290" t="n">
         <v>9</v>
       </c>
